--- a/Code/Results/Cases/Case_3_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_175/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9112906041038684</v>
+        <v>0.3150526710033148</v>
       </c>
       <c r="C2">
-        <v>0.1498691412542286</v>
+        <v>0.04542379512027139</v>
       </c>
       <c r="D2">
-        <v>0.4251684024260101</v>
+        <v>0.3620832968265404</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6150086266696633</v>
+        <v>1.087568053135641</v>
       </c>
       <c r="G2">
-        <v>0.2655276727875489</v>
+        <v>0.480954622119846</v>
       </c>
       <c r="H2">
-        <v>0.2477586318849703</v>
+        <v>0.636323509858606</v>
       </c>
       <c r="I2">
-        <v>0.1971387577668366</v>
+        <v>0.4800662808957519</v>
       </c>
       <c r="J2">
-        <v>0.4377199422503679</v>
+        <v>0.3480059910106377</v>
       </c>
       <c r="K2">
-        <v>0.9991285411562956</v>
+        <v>0.3252599649995034</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6644212072547617</v>
+        <v>1.270349397365298</v>
       </c>
       <c r="O2">
-        <v>1.030493668337712</v>
+        <v>2.195068470340686</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7937409390937944</v>
+        <v>0.27908169868968</v>
       </c>
       <c r="C3">
-        <v>0.1319772663143652</v>
+        <v>0.03978548771654289</v>
       </c>
       <c r="D3">
-        <v>0.3755558648568353</v>
+        <v>0.3502186477398084</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5834143638059004</v>
+        <v>1.087513024883592</v>
       </c>
       <c r="G3">
-        <v>0.2567934830523271</v>
+        <v>0.4829853969292728</v>
       </c>
       <c r="H3">
-        <v>0.2487431948264032</v>
+        <v>0.6405549271711237</v>
       </c>
       <c r="I3">
-        <v>0.2011132308983186</v>
+        <v>0.4848189494474369</v>
       </c>
       <c r="J3">
-        <v>0.3867781173309197</v>
+        <v>0.3364256760962547</v>
       </c>
       <c r="K3">
-        <v>0.8715426027868034</v>
+        <v>0.285889301473361</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.689650745869848</v>
+        <v>1.281786794964908</v>
       </c>
       <c r="O3">
-        <v>1.013722712941785</v>
+        <v>2.208003653438922</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7215368338157191</v>
+        <v>0.25697828389508</v>
       </c>
       <c r="C4">
-        <v>0.1209787307489449</v>
+        <v>0.0363072422892543</v>
       </c>
       <c r="D4">
-        <v>0.3453909020660006</v>
+        <v>0.3430982689277471</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.565075586979134</v>
+        <v>1.088066691611246</v>
       </c>
       <c r="G4">
-        <v>0.2520496409901867</v>
+        <v>0.4845411660890662</v>
       </c>
       <c r="H4">
-        <v>0.2497479024086502</v>
+        <v>0.6434062914291871</v>
       </c>
       <c r="I4">
-        <v>0.2039934657347384</v>
+        <v>0.4879818635149498</v>
       </c>
       <c r="J4">
-        <v>0.3559655024812116</v>
+        <v>0.3295151997565142</v>
       </c>
       <c r="K4">
-        <v>0.7931532167580428</v>
+        <v>0.2616713618168376</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7059403518804999</v>
+        <v>1.28922434438465</v>
       </c>
       <c r="O4">
-        <v>1.005567239181829</v>
+        <v>2.217122890235188</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6920996352201314</v>
+        <v>0.247967296889783</v>
       </c>
       <c r="C5">
-        <v>0.1164923777340476</v>
+        <v>0.03488580941944974</v>
       </c>
       <c r="D5">
-        <v>0.3331667921144543</v>
+        <v>0.340238217505231</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5578560838425304</v>
+        <v>1.088440138634908</v>
       </c>
       <c r="G5">
-        <v>0.25026467694952</v>
+        <v>0.4852527932240847</v>
       </c>
       <c r="H5">
-        <v>0.2502547090401919</v>
+        <v>0.6446319868097063</v>
       </c>
       <c r="I5">
-        <v>0.2052739295875927</v>
+        <v>0.4893323213400524</v>
       </c>
       <c r="J5">
-        <v>0.3435162304612192</v>
+        <v>0.3267494220991409</v>
       </c>
       <c r="K5">
-        <v>0.761188945803724</v>
+        <v>0.2517918984755738</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.712774636937759</v>
+        <v>1.292359601896333</v>
       </c>
       <c r="O5">
-        <v>1.002759802416037</v>
+        <v>2.221135070902875</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6872106201122961</v>
+        <v>0.2464708265418096</v>
       </c>
       <c r="C6">
-        <v>0.115747127216224</v>
+        <v>0.03464954114367913</v>
       </c>
       <c r="D6">
-        <v>0.3311409349191337</v>
+        <v>0.3397658235983272</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.556672246899403</v>
+        <v>1.088511080432511</v>
       </c>
       <c r="G6">
-        <v>0.2499770232519154</v>
+        <v>0.485375646723341</v>
       </c>
       <c r="H6">
-        <v>0.2503446530709539</v>
+        <v>0.644839364113821</v>
       </c>
       <c r="I6">
-        <v>0.2054928865542305</v>
+        <v>0.4895602809434294</v>
       </c>
       <c r="J6">
-        <v>0.341455223847575</v>
+        <v>0.3262932057108827</v>
       </c>
       <c r="K6">
-        <v>0.7558798976102423</v>
+        <v>0.2501508088968052</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7139211784227335</v>
+        <v>1.292886515932199</v>
       </c>
       <c r="O6">
-        <v>1.002324150531493</v>
+        <v>2.221819170842139</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7211398960268411</v>
+        <v>0.2568567725790842</v>
       </c>
       <c r="C7">
-        <v>0.1209182453204392</v>
+        <v>0.03628808851900089</v>
       </c>
       <c r="D7">
-        <v>0.3452257749222127</v>
+        <v>0.343059528758161</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5649772116680296</v>
+        <v>1.088071129380893</v>
       </c>
       <c r="G7">
-        <v>0.2520249779507608</v>
+        <v>0.4845504490232244</v>
       </c>
       <c r="H7">
-        <v>0.2497543472817014</v>
+        <v>0.6434225634228881</v>
       </c>
       <c r="I7">
-        <v>0.2040103073114441</v>
+        <v>0.4879998270712456</v>
       </c>
       <c r="J7">
-        <v>0.3557971864357086</v>
+        <v>0.3294776958116898</v>
       </c>
       <c r="K7">
-        <v>0.7927222253371724</v>
+        <v>0.2615381653864972</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7060317332968324</v>
+        <v>1.289266204794739</v>
       </c>
       <c r="O7">
-        <v>1.005527317101681</v>
+        <v>2.217175801268908</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.870761341575701</v>
+        <v>0.3026537954577577</v>
       </c>
       <c r="C8">
-        <v>0.1437019840158769</v>
+        <v>0.04348313631372491</v>
       </c>
       <c r="D8">
-        <v>0.407996321237647</v>
+        <v>0.3579583143229286</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6038869210960911</v>
+        <v>1.087427212241892</v>
       </c>
       <c r="G8">
-        <v>0.2623830629305459</v>
+        <v>0.4815907105766684</v>
       </c>
       <c r="H8">
-        <v>0.2480130519083303</v>
+        <v>0.6377299735991571</v>
       </c>
       <c r="I8">
-        <v>0.1984154793807704</v>
+        <v>0.4816542011853642</v>
       </c>
       <c r="J8">
-        <v>0.4200523110975638</v>
+        <v>0.3439716294528239</v>
       </c>
       <c r="K8">
-        <v>0.9551430724673367</v>
+        <v>0.3116945144503802</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6729517416686939</v>
+        <v>1.274206924825297</v>
       </c>
       <c r="O8">
-        <v>1.024252551989761</v>
+        <v>2.199284270248171</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.16426447709577</v>
+        <v>0.3923024929096073</v>
       </c>
       <c r="C9">
-        <v>0.1883354120604821</v>
+        <v>0.05746039656466451</v>
       </c>
       <c r="D9">
-        <v>0.5337584143123024</v>
+        <v>0.3884744108222549</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6892154576346456</v>
+        <v>1.090822539115138</v>
       </c>
       <c r="G9">
-        <v>0.2879598886346884</v>
+        <v>0.4782391106418302</v>
       </c>
       <c r="H9">
-        <v>0.2479273690461383</v>
+        <v>0.6285738568349117</v>
       </c>
       <c r="I9">
-        <v>0.1911163992921132</v>
+        <v>0.4711525514533967</v>
       </c>
       <c r="J9">
-        <v>0.5502349139294296</v>
+        <v>0.373980499844734</v>
       </c>
       <c r="K9">
-        <v>1.273600794729106</v>
+        <v>0.4096760796036563</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6146367557069645</v>
+        <v>1.247965365929936</v>
       </c>
       <c r="O9">
-        <v>1.079039625010068</v>
+        <v>2.173536657080092</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.380451314471031</v>
+        <v>0.4580450681761192</v>
       </c>
       <c r="C10">
-        <v>0.221187141264636</v>
+        <v>0.06764599406056959</v>
       </c>
       <c r="D10">
-        <v>0.6282458108279343</v>
+        <v>0.4116812903696427</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7583125803511592</v>
+        <v>1.096154597249395</v>
       </c>
       <c r="G10">
-        <v>0.3104776728336631</v>
+        <v>0.4772748272761831</v>
       </c>
       <c r="H10">
-        <v>0.2501186613863027</v>
+        <v>0.6230672504164829</v>
       </c>
       <c r="I10">
-        <v>0.1882570503105576</v>
+        <v>0.4646210654230494</v>
       </c>
       <c r="J10">
-        <v>0.649143290658742</v>
+        <v>0.3969982699750574</v>
       </c>
       <c r="K10">
-        <v>1.508090830267548</v>
+        <v>0.4814088177074041</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5761045389641701</v>
+        <v>1.230687046427317</v>
       </c>
       <c r="O10">
-        <v>1.131873455657256</v>
+        <v>2.160312604699243</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.479037582457465</v>
+        <v>0.4879215034524123</v>
       </c>
       <c r="C11">
-        <v>0.2361662990794144</v>
+        <v>0.07226099587605006</v>
       </c>
       <c r="D11">
-        <v>0.6717939526321857</v>
+        <v>0.4224084889547441</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7913503156071044</v>
+        <v>1.099196101855881</v>
       </c>
       <c r="G11">
-        <v>0.3216521503938452</v>
+        <v>0.47716215534345</v>
       </c>
       <c r="H11">
-        <v>0.2516578585417193</v>
+        <v>0.6208265014320489</v>
       </c>
       <c r="I11">
-        <v>0.1875616555144148</v>
+        <v>0.4619068695604369</v>
       </c>
       <c r="J11">
-        <v>0.6950176210371382</v>
+        <v>0.407681162895841</v>
       </c>
       <c r="K11">
-        <v>1.615011017749367</v>
+        <v>0.5139816020190722</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5595854325583964</v>
+        <v>1.223260423943092</v>
       </c>
       <c r="O11">
-        <v>1.159009107278621</v>
+        <v>2.155532960990314</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.516414476397415</v>
+        <v>0.4992300251639961</v>
       </c>
       <c r="C12">
-        <v>0.2418453518438639</v>
+        <v>0.07400585069241572</v>
       </c>
       <c r="D12">
-        <v>0.6883753614905288</v>
+        <v>0.4264949361546826</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8041104236849463</v>
+        <v>1.10043634198793</v>
       </c>
       <c r="G12">
-        <v>0.3260282529021765</v>
+        <v>0.477166410462516</v>
       </c>
       <c r="H12">
-        <v>0.2523233953805999</v>
+        <v>0.6200159327262611</v>
       </c>
       <c r="I12">
-        <v>0.187390857626859</v>
+        <v>0.4609160387399776</v>
       </c>
       <c r="J12">
-        <v>0.7125306189297476</v>
+        <v>0.4117569843632936</v>
       </c>
       <c r="K12">
-        <v>1.655546101223536</v>
+        <v>0.5263070288214067</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5534818609512477</v>
+        <v>1.220510428673776</v>
       </c>
       <c r="O12">
-        <v>1.169763237418749</v>
+        <v>2.153900767746222</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.508362557230811</v>
+        <v>0.4967947677076836</v>
       </c>
       <c r="C13">
-        <v>0.2406219353009931</v>
+        <v>0.07363018854709935</v>
       </c>
       <c r="D13">
-        <v>0.6848000697469558</v>
+        <v>0.4256137694521556</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8013509032820423</v>
+        <v>1.100165299840597</v>
       </c>
       <c r="G13">
-        <v>0.3250791738202281</v>
+        <v>0.4771634064862837</v>
       </c>
       <c r="H13">
-        <v>0.2521763053443351</v>
+        <v>0.620188815841928</v>
       </c>
       <c r="I13">
-        <v>0.1874234357460054</v>
+        <v>0.4611277870627823</v>
       </c>
       <c r="J13">
-        <v>0.7087523471528954</v>
+        <v>0.4108778300754352</v>
       </c>
       <c r="K13">
-        <v>1.646813886114927</v>
+        <v>0.5236529474368297</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5547895095355919</v>
+        <v>1.221099918485059</v>
       </c>
       <c r="O13">
-        <v>1.167425325104432</v>
+        <v>2.154244383917472</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.482111654191385</v>
+        <v>0.4888519672446705</v>
       </c>
       <c r="C14">
-        <v>0.2366333717982911</v>
+        <v>0.07240460168077334</v>
       </c>
       <c r="D14">
-        <v>0.6731562419778641</v>
+        <v>0.4227441977408546</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.792394987471809</v>
+        <v>1.0992963641866</v>
       </c>
       <c r="G14">
-        <v>0.3220092139881956</v>
+        <v>0.4771615647806726</v>
       </c>
       <c r="H14">
-        <v>0.2517109278293077</v>
+        <v>0.6207590550373396</v>
       </c>
       <c r="I14">
-        <v>0.1875457167898951</v>
+        <v>0.4618246121476055</v>
       </c>
       <c r="J14">
-        <v>0.6964555040831186</v>
+        <v>0.4080158733322321</v>
       </c>
       <c r="K14">
-        <v>1.618344861948401</v>
+        <v>0.5149958104258587</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.55908020483756</v>
+        <v>1.223032931547873</v>
       </c>
       <c r="O14">
-        <v>1.15988407397009</v>
+        <v>2.155395116945556</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.466038300100564</v>
+        <v>0.4839860961839122</v>
       </c>
       <c r="C15">
-        <v>0.2341911983387064</v>
+        <v>0.0716535340530271</v>
       </c>
       <c r="D15">
-        <v>0.666036158391222</v>
+        <v>0.4209896596642864</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.786942286942093</v>
+        <v>1.098775637385444</v>
       </c>
       <c r="G15">
-        <v>0.3201479308006725</v>
+        <v>0.477166548581863</v>
       </c>
       <c r="H15">
-        <v>0.2514367815601588</v>
+        <v>0.6211132845311909</v>
       </c>
       <c r="I15">
-        <v>0.1876328363376381</v>
+        <v>0.4622562535800334</v>
       </c>
       <c r="J15">
-        <v>0.6889422010001169</v>
+        <v>0.406266805312498</v>
       </c>
       <c r="K15">
-        <v>1.600913183737276</v>
+        <v>0.5096918470628964</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.561728361343647</v>
+        <v>1.224225071536278</v>
       </c>
       <c r="O15">
-        <v>1.155328146406873</v>
+        <v>2.156123123333657</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.374014144366043</v>
+        <v>0.4560919059717321</v>
       </c>
       <c r="C16">
-        <v>0.2202090657072802</v>
+        <v>0.06734401340078477</v>
       </c>
       <c r="D16">
-        <v>0.6254120011435305</v>
+        <v>0.4109836523831234</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7561873509806816</v>
+        <v>1.095968214859738</v>
       </c>
       <c r="G16">
-        <v>0.3097670280375198</v>
+        <v>0.4772887541948378</v>
       </c>
       <c r="H16">
-        <v>0.2500293789436014</v>
+        <v>0.6232190020802051</v>
       </c>
       <c r="I16">
-        <v>0.1883151386371154</v>
+        <v>0.464803617788494</v>
       </c>
       <c r="J16">
-        <v>0.6461642524097186</v>
+        <v>0.3963043800447537</v>
       </c>
       <c r="K16">
-        <v>1.501109274782692</v>
+        <v>0.4792788645410155</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5772049774577468</v>
+        <v>1.231181113067819</v>
       </c>
       <c r="O16">
-        <v>1.130165214618245</v>
+        <v>2.160649839113091</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.317628882648535</v>
+        <v>0.4389714968253884</v>
       </c>
       <c r="C17">
-        <v>0.211641597539213</v>
+        <v>0.06469546607814891</v>
       </c>
       <c r="D17">
-        <v>0.6006416755041926</v>
+        <v>0.4048887634508844</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7377441876933375</v>
+        <v>1.094403647937909</v>
       </c>
       <c r="G17">
-        <v>0.3036445407760979</v>
+        <v>0.4774472484731902</v>
       </c>
       <c r="H17">
-        <v>0.2493081394494112</v>
+        <v>0.6245784381252761</v>
       </c>
       <c r="I17">
-        <v>0.1888925540695787</v>
+        <v>0.4664321828355753</v>
       </c>
       <c r="J17">
-        <v>0.6201570682610367</v>
+        <v>0.390247021665644</v>
       </c>
       <c r="K17">
-        <v>1.43995418612127</v>
+        <v>0.4606059096934416</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5869625606284892</v>
+        <v>1.235559406246811</v>
       </c>
       <c r="O17">
-        <v>1.11554537787184</v>
+        <v>2.163743422369691</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.285219712690434</v>
+        <v>0.4291214899940883</v>
       </c>
       <c r="C18">
-        <v>0.2067169720790361</v>
+        <v>0.06317035784374525</v>
       </c>
       <c r="D18">
-        <v>0.5864470559863264</v>
+        <v>0.4013991831421606</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7272860663183707</v>
+        <v>1.093561729063438</v>
       </c>
       <c r="G18">
-        <v>0.3002100028344827</v>
+        <v>0.4775690908195642</v>
       </c>
       <c r="H18">
-        <v>0.248944054658466</v>
+        <v>0.6253852232348365</v>
       </c>
       <c r="I18">
-        <v>0.1892812984627597</v>
+        <v>0.4673930802603188</v>
       </c>
       <c r="J18">
-        <v>0.6052803500134303</v>
+        <v>0.3867829458575045</v>
       </c>
       <c r="K18">
-        <v>1.404802184617267</v>
+        <v>0.4498602289116604</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5926694492721296</v>
+        <v>1.238118476292883</v>
       </c>
       <c r="O18">
-        <v>1.10742628167138</v>
+        <v>2.165639111269783</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.274250044592463</v>
+        <v>0.4257859871306664</v>
       </c>
       <c r="C19">
-        <v>0.2050500686805776</v>
+        <v>0.06265368732279342</v>
       </c>
       <c r="D19">
-        <v>0.5816497629454886</v>
+        <v>0.4002204317816336</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7237703226830376</v>
+        <v>1.093286630133932</v>
       </c>
       <c r="G19">
-        <v>0.2990617466929635</v>
+        <v>0.4776156125829871</v>
       </c>
       <c r="H19">
-        <v>0.2488293606200642</v>
+        <v>0.6256626601404349</v>
       </c>
       <c r="I19">
-        <v>0.1894224849551911</v>
+        <v>0.4677225776881286</v>
       </c>
       <c r="J19">
-        <v>0.6002569854502724</v>
+        <v>0.3856134981349868</v>
       </c>
       <c r="K19">
-        <v>1.392903916852873</v>
+        <v>0.4462210050238014</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5946177506621879</v>
+        <v>1.238991939869383</v>
       </c>
       <c r="O19">
-        <v>1.104726118975648</v>
+        <v>2.166300940352158</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.323628830787584</v>
+        <v>0.4407942884571696</v>
       </c>
       <c r="C20">
-        <v>0.2125532801435668</v>
+        <v>0.06497758855773839</v>
       </c>
       <c r="D20">
-        <v>0.6032730073714561</v>
+        <v>0.4055359162576337</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7396918488017405</v>
+        <v>1.094564198768225</v>
       </c>
       <c r="G20">
-        <v>0.3042872151430416</v>
+        <v>0.4774272008264049</v>
       </c>
       <c r="H20">
-        <v>0.2493796308561329</v>
+        <v>0.6244311498349617</v>
       </c>
       <c r="I20">
-        <v>0.188825187466275</v>
+        <v>0.4662563156092538</v>
       </c>
       <c r="J20">
-        <v>0.6229169944507902</v>
+        <v>0.3908897726862506</v>
       </c>
       <c r="K20">
-        <v>1.446461815127321</v>
+        <v>0.4625942511640062</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5859140127166249</v>
+        <v>1.235089107784635</v>
       </c>
       <c r="O20">
-        <v>1.117071457350306</v>
+        <v>2.163402064133649</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.489820895068192</v>
+        <v>0.4911851024842804</v>
       </c>
       <c r="C21">
-        <v>0.2378047109741033</v>
+        <v>0.07276466149325245</v>
       </c>
       <c r="D21">
-        <v>0.6765737777951131</v>
+        <v>0.4235864028509013</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7950186331908782</v>
+        <v>1.099549190752896</v>
       </c>
       <c r="G21">
-        <v>0.3229069235302546</v>
+        <v>0.4771608319407079</v>
       </c>
       <c r="H21">
-        <v>0.2518453378917371</v>
+        <v>0.6205905322290732</v>
       </c>
       <c r="I21">
-        <v>0.1875072432301153</v>
+        <v>0.461618934056883</v>
       </c>
       <c r="J21">
-        <v>0.7000634250053821</v>
+        <v>0.4088556735702014</v>
       </c>
       <c r="K21">
-        <v>1.626705545792021</v>
+        <v>0.5175388763275066</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5578157469239926</v>
+        <v>1.222463467891828</v>
       </c>
       <c r="O21">
-        <v>1.162085868379762</v>
+        <v>2.155052294471943</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.598700873983717</v>
+        <v>0.5240887370082987</v>
       </c>
       <c r="C22">
-        <v>0.2543483737854757</v>
+        <v>0.07783791540603602</v>
       </c>
       <c r="D22">
-        <v>0.7250133854238072</v>
+        <v>0.435524928169599</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8326412851300091</v>
+        <v>1.103322910719385</v>
       </c>
       <c r="G22">
-        <v>0.3359240904145082</v>
+        <v>0.4772602595607509</v>
       </c>
       <c r="H22">
-        <v>0.2539411080965976</v>
+        <v>0.6183016739072968</v>
       </c>
       <c r="I22">
-        <v>0.1871880267347272</v>
+        <v>0.4588036715398758</v>
       </c>
       <c r="J22">
-        <v>0.7513147751085967</v>
+        <v>0.4207748453517297</v>
       </c>
       <c r="K22">
-        <v>1.74478323267337</v>
+        <v>0.5533945225193975</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5403404319034273</v>
+        <v>1.214575042121481</v>
       </c>
       <c r="O22">
-        <v>1.194310697018466</v>
+        <v>2.150631329224325</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.540562068108585</v>
+        <v>0.5065303927386822</v>
       </c>
       <c r="C23">
-        <v>0.2455143895863188</v>
+        <v>0.07513172220615161</v>
       </c>
       <c r="D23">
-        <v>0.6991081940108472</v>
+        <v>0.4291402310219041</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8124210022599243</v>
+        <v>1.101261642140997</v>
       </c>
       <c r="G23">
-        <v>0.3288952744258182</v>
+        <v>0.4771821517639552</v>
       </c>
       <c r="H23">
-        <v>0.2527766187094045</v>
+        <v>0.6195030540742152</v>
       </c>
       <c r="I23">
-        <v>0.1873068947210328</v>
+        <v>0.4602865026134459</v>
       </c>
       <c r="J23">
-        <v>0.723879712917693</v>
+        <v>0.414397139903258</v>
       </c>
       <c r="K23">
-        <v>1.681733717084597</v>
+        <v>0.5342628553776763</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5495837176750982</v>
+        <v>1.2187520179057</v>
       </c>
       <c r="O23">
-        <v>1.176843747110013</v>
+        <v>2.152896075267677</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.320916231693161</v>
+        <v>0.4399702269070929</v>
       </c>
       <c r="C24">
-        <v>0.2121411056858165</v>
+        <v>0.0648500485249599</v>
       </c>
       <c r="D24">
-        <v>0.602083239124596</v>
+        <v>0.4052432934417709</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7388108606585035</v>
+        <v>1.094491434401007</v>
       </c>
       <c r="G24">
-        <v>0.3039963969803594</v>
+        <v>0.4774361686746147</v>
       </c>
       <c r="H24">
-        <v>0.2493471524420983</v>
+        <v>0.6244976602866217</v>
       </c>
       <c r="I24">
-        <v>0.1888554674600194</v>
+        <v>0.4663357485138455</v>
       </c>
       <c r="J24">
-        <v>0.62166899882466</v>
+        <v>0.3905991276965182</v>
       </c>
       <c r="K24">
-        <v>1.443519695454825</v>
+        <v>0.4616953541700468</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5863877592105133</v>
+        <v>1.235301599105565</v>
       </c>
       <c r="O24">
-        <v>1.116380628292546</v>
+        <v>2.163556027289189</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.084804980265261</v>
+        <v>0.368069797886136</v>
       </c>
       <c r="C25">
-        <v>0.1762571191685254</v>
+        <v>0.05369363063287835</v>
       </c>
       <c r="D25">
-        <v>0.4994045471067352</v>
+        <v>0.3800804379075942</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6650752991482278</v>
+        <v>1.089405557563062</v>
       </c>
       <c r="G25">
-        <v>0.2804254273240332</v>
+        <v>0.4788829379785255</v>
       </c>
       <c r="H25">
-        <v>0.247571718716415</v>
+        <v>0.6308362888892631</v>
       </c>
       <c r="I25">
-        <v>0.1926713912316842</v>
+        <v>0.473785598340065</v>
       </c>
       <c r="J25">
-        <v>0.51449845648429</v>
+        <v>0.3656921440548189</v>
       </c>
       <c r="K25">
-        <v>1.187400282630193</v>
+        <v>0.383212269017065</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6296792418611226</v>
+        <v>1.254712657564994</v>
       </c>
       <c r="O25">
-        <v>1.062127539812593</v>
+        <v>2.179502383522859</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_175/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3150526710033148</v>
+        <v>0.9112906041038116</v>
       </c>
       <c r="C2">
-        <v>0.04542379512027139</v>
+        <v>0.1498691412538733</v>
       </c>
       <c r="D2">
-        <v>0.3620832968265404</v>
+        <v>0.4251684024261522</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.087568053135641</v>
+        <v>0.6150086266696633</v>
       </c>
       <c r="G2">
-        <v>0.480954622119846</v>
+        <v>0.2655276727875417</v>
       </c>
       <c r="H2">
-        <v>0.636323509858606</v>
+        <v>0.2477586318849703</v>
       </c>
       <c r="I2">
-        <v>0.4800662808957519</v>
+        <v>0.1971387577668189</v>
       </c>
       <c r="J2">
-        <v>0.3480059910106377</v>
+        <v>0.4377199422504106</v>
       </c>
       <c r="K2">
-        <v>0.3252599649995034</v>
+        <v>0.9991285411563524</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.270349397365298</v>
+        <v>0.6644212072547546</v>
       </c>
       <c r="O2">
-        <v>2.195068470340686</v>
+        <v>1.030493668337641</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.27908169868968</v>
+        <v>0.7937409390937944</v>
       </c>
       <c r="C3">
-        <v>0.03978548771654289</v>
+        <v>0.131977266314621</v>
       </c>
       <c r="D3">
-        <v>0.3502186477398084</v>
+        <v>0.3755558648568069</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.087513024883592</v>
+        <v>0.5834143638059217</v>
       </c>
       <c r="G3">
-        <v>0.4829853969292728</v>
+        <v>0.2567934830523271</v>
       </c>
       <c r="H3">
-        <v>0.6405549271711237</v>
+        <v>0.2487431948264032</v>
       </c>
       <c r="I3">
-        <v>0.4848189494474369</v>
+        <v>0.2011132308983008</v>
       </c>
       <c r="J3">
-        <v>0.3364256760962547</v>
+        <v>0.3867781173308629</v>
       </c>
       <c r="K3">
-        <v>0.285889301473361</v>
+        <v>0.8715426027868034</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.281786794964908</v>
+        <v>0.6896507458699048</v>
       </c>
       <c r="O3">
-        <v>2.208003653438922</v>
+        <v>1.013722712941771</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.25697828389508</v>
+        <v>0.7215368338158044</v>
       </c>
       <c r="C4">
-        <v>0.0363072422892543</v>
+        <v>0.1209787307491723</v>
       </c>
       <c r="D4">
-        <v>0.3430982689277471</v>
+        <v>0.3453909020659864</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.088066691611246</v>
+        <v>0.5650755869791411</v>
       </c>
       <c r="G4">
-        <v>0.4845411660890662</v>
+        <v>0.2520496409901938</v>
       </c>
       <c r="H4">
-        <v>0.6434062914291871</v>
+        <v>0.2497479024086502</v>
       </c>
       <c r="I4">
-        <v>0.4879818635149498</v>
+        <v>0.2039934657347366</v>
       </c>
       <c r="J4">
-        <v>0.3295151997565142</v>
+        <v>0.3559655024812542</v>
       </c>
       <c r="K4">
-        <v>0.2616713618168376</v>
+        <v>0.793153216757986</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.28922434438465</v>
+        <v>0.7059403518804892</v>
       </c>
       <c r="O4">
-        <v>2.217122890235188</v>
+        <v>1.005567239181758</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.247967296889783</v>
+        <v>0.692099635220103</v>
       </c>
       <c r="C5">
-        <v>0.03488580941944974</v>
+        <v>0.1164923777342608</v>
       </c>
       <c r="D5">
-        <v>0.340238217505231</v>
+        <v>0.3331667921146817</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.088440138634908</v>
+        <v>0.5578560838425659</v>
       </c>
       <c r="G5">
-        <v>0.4852527932240847</v>
+        <v>0.25026467694952</v>
       </c>
       <c r="H5">
-        <v>0.6446319868097063</v>
+        <v>0.2502547090401848</v>
       </c>
       <c r="I5">
-        <v>0.4893323213400524</v>
+        <v>0.2052739295875909</v>
       </c>
       <c r="J5">
-        <v>0.3267494220991409</v>
+        <v>0.3435162304613044</v>
       </c>
       <c r="K5">
-        <v>0.2517918984755738</v>
+        <v>0.7611889458036529</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.292359601896333</v>
+        <v>0.7127746369377483</v>
       </c>
       <c r="O5">
-        <v>2.221135070902875</v>
+        <v>1.002759802416094</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2464708265418096</v>
+        <v>0.6872106201123245</v>
       </c>
       <c r="C6">
-        <v>0.03464954114367913</v>
+        <v>0.1157471272161672</v>
       </c>
       <c r="D6">
-        <v>0.3397658235983272</v>
+        <v>0.3311409349191479</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.088511080432511</v>
+        <v>0.5566722468993817</v>
       </c>
       <c r="G6">
-        <v>0.485375646723341</v>
+        <v>0.2499770232519225</v>
       </c>
       <c r="H6">
-        <v>0.644839364113821</v>
+        <v>0.2503446530709539</v>
       </c>
       <c r="I6">
-        <v>0.4895602809434294</v>
+        <v>0.2054928865542287</v>
       </c>
       <c r="J6">
-        <v>0.3262932057108827</v>
+        <v>0.3414552238476034</v>
       </c>
       <c r="K6">
-        <v>0.2501508088968052</v>
+        <v>0.7558798976102281</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.292886515932199</v>
+        <v>0.7139211784227442</v>
       </c>
       <c r="O6">
-        <v>2.221819170842139</v>
+        <v>1.002324150531479</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2568567725790842</v>
+        <v>0.7211398960268127</v>
       </c>
       <c r="C7">
-        <v>0.03628808851900089</v>
+        <v>0.120918245320695</v>
       </c>
       <c r="D7">
-        <v>0.343059528758161</v>
+        <v>0.3452257749221133</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.088071129380893</v>
+        <v>0.5649772116680225</v>
       </c>
       <c r="G7">
-        <v>0.4845504490232244</v>
+        <v>0.2520249779507395</v>
       </c>
       <c r="H7">
-        <v>0.6434225634228881</v>
+        <v>0.2497543472816872</v>
       </c>
       <c r="I7">
-        <v>0.4879998270712456</v>
+        <v>0.2040103073114423</v>
       </c>
       <c r="J7">
-        <v>0.3294776958116898</v>
+        <v>0.3557971864357086</v>
       </c>
       <c r="K7">
-        <v>0.2615381653864972</v>
+        <v>0.7927222253372008</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.289266204794739</v>
+        <v>0.7060317332968218</v>
       </c>
       <c r="O7">
-        <v>2.217175801268908</v>
+        <v>1.005527317101667</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3026537954577577</v>
+        <v>0.8707613415758999</v>
       </c>
       <c r="C8">
-        <v>0.04348313631372491</v>
+        <v>0.1437019840158058</v>
       </c>
       <c r="D8">
-        <v>0.3579583143229286</v>
+        <v>0.4079963212378743</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.087427212241892</v>
+        <v>0.6038869210960911</v>
       </c>
       <c r="G8">
-        <v>0.4815907105766684</v>
+        <v>0.2623830629305957</v>
       </c>
       <c r="H8">
-        <v>0.6377299735991571</v>
+        <v>0.248013051908444</v>
       </c>
       <c r="I8">
-        <v>0.4816542011853642</v>
+        <v>0.198415479380774</v>
       </c>
       <c r="J8">
-        <v>0.3439716294528239</v>
+        <v>0.4200523110976206</v>
       </c>
       <c r="K8">
-        <v>0.3116945144503802</v>
+        <v>0.9551430724673082</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.274206924825297</v>
+        <v>0.6729517416686299</v>
       </c>
       <c r="O8">
-        <v>2.199284270248171</v>
+        <v>1.024252551989775</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3923024929096073</v>
+        <v>1.16426447709577</v>
       </c>
       <c r="C9">
-        <v>0.05746039656466451</v>
+        <v>0.1883354120604963</v>
       </c>
       <c r="D9">
-        <v>0.3884744108222549</v>
+        <v>0.5337584143121319</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.090822539115138</v>
+        <v>0.6892154576346456</v>
       </c>
       <c r="G9">
-        <v>0.4782391106418302</v>
+        <v>0.2879598886346955</v>
       </c>
       <c r="H9">
-        <v>0.6285738568349117</v>
+        <v>0.247927369046252</v>
       </c>
       <c r="I9">
-        <v>0.4711525514533967</v>
+        <v>0.1911163992921274</v>
       </c>
       <c r="J9">
-        <v>0.373980499844734</v>
+        <v>0.550234913929458</v>
       </c>
       <c r="K9">
-        <v>0.4096760796036563</v>
+        <v>1.273600794729049</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.247965365929936</v>
+        <v>0.6146367557070214</v>
       </c>
       <c r="O9">
-        <v>2.173536657080092</v>
+        <v>1.079039625009983</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4580450681761192</v>
+        <v>1.380451314471031</v>
       </c>
       <c r="C10">
-        <v>0.06764599406056959</v>
+        <v>0.2211871412650197</v>
       </c>
       <c r="D10">
-        <v>0.4116812903696427</v>
+        <v>0.6282458108281048</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.096154597249395</v>
+        <v>0.7583125803511592</v>
       </c>
       <c r="G10">
-        <v>0.4772748272761831</v>
+        <v>0.3104776728336063</v>
       </c>
       <c r="H10">
-        <v>0.6230672504164829</v>
+        <v>0.2501186613863027</v>
       </c>
       <c r="I10">
-        <v>0.4646210654230494</v>
+        <v>0.1882570503105683</v>
       </c>
       <c r="J10">
-        <v>0.3969982699750574</v>
+        <v>0.6491432906587278</v>
       </c>
       <c r="K10">
-        <v>0.4814088177074041</v>
+        <v>1.508090830267491</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.230687046427317</v>
+        <v>0.5761045389641595</v>
       </c>
       <c r="O10">
-        <v>2.160312604699243</v>
+        <v>1.131873455657313</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4879215034524123</v>
+        <v>1.479037582457352</v>
       </c>
       <c r="C11">
-        <v>0.07226099587605006</v>
+        <v>0.236166299079386</v>
       </c>
       <c r="D11">
-        <v>0.4224084889547441</v>
+        <v>0.6717939526320436</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.099196101855881</v>
+        <v>0.7913503156071187</v>
       </c>
       <c r="G11">
-        <v>0.47716215534345</v>
+        <v>0.3216521503937884</v>
       </c>
       <c r="H11">
-        <v>0.6208265014320489</v>
+        <v>0.2516578585417193</v>
       </c>
       <c r="I11">
-        <v>0.4619068695604369</v>
+        <v>0.1875616555144006</v>
       </c>
       <c r="J11">
-        <v>0.407681162895841</v>
+        <v>0.6950176210371097</v>
       </c>
       <c r="K11">
-        <v>0.5139816020190722</v>
+        <v>1.615011017749453</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.223260423943092</v>
+        <v>0.5595854325584035</v>
       </c>
       <c r="O11">
-        <v>2.155532960990314</v>
+        <v>1.159009107278678</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4992300251639961</v>
+        <v>1.516414476397301</v>
       </c>
       <c r="C12">
-        <v>0.07400585069241572</v>
+        <v>0.2418453518440913</v>
       </c>
       <c r="D12">
-        <v>0.4264949361546826</v>
+        <v>0.6883753614904435</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.10043634198793</v>
+        <v>0.8041104236849463</v>
       </c>
       <c r="G12">
-        <v>0.477166410462516</v>
+        <v>0.3260282529021055</v>
       </c>
       <c r="H12">
-        <v>0.6200159327262611</v>
+        <v>0.2523233953807136</v>
       </c>
       <c r="I12">
-        <v>0.4609160387399776</v>
+        <v>0.187390857626859</v>
       </c>
       <c r="J12">
-        <v>0.4117569843632936</v>
+        <v>0.7125306189298612</v>
       </c>
       <c r="K12">
-        <v>0.5263070288214067</v>
+        <v>1.655546101223564</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.220510428673776</v>
+        <v>0.5534818609511873</v>
       </c>
       <c r="O12">
-        <v>2.153900767746222</v>
+        <v>1.169763237418749</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4967947677076836</v>
+        <v>1.508362557230839</v>
       </c>
       <c r="C13">
-        <v>0.07363018854709935</v>
+        <v>0.2406219353007373</v>
       </c>
       <c r="D13">
-        <v>0.4256137694521556</v>
+        <v>0.6848000697467285</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.100165299840597</v>
+        <v>0.8013509032820423</v>
       </c>
       <c r="G13">
-        <v>0.4771634064862837</v>
+        <v>0.3250791738202423</v>
       </c>
       <c r="H13">
-        <v>0.620188815841928</v>
+        <v>0.2521763053443209</v>
       </c>
       <c r="I13">
-        <v>0.4611277870627823</v>
+        <v>0.1874234357460018</v>
       </c>
       <c r="J13">
-        <v>0.4108778300754352</v>
+        <v>0.7087523471528385</v>
       </c>
       <c r="K13">
-        <v>0.5236529474368297</v>
+        <v>1.64681388611487</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.221099918485059</v>
+        <v>0.5547895095355706</v>
       </c>
       <c r="O13">
-        <v>2.154244383917472</v>
+        <v>1.167425325104375</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4888519672446705</v>
+        <v>1.4821116541913</v>
       </c>
       <c r="C14">
-        <v>0.07240460168077334</v>
+        <v>0.2366333717985327</v>
       </c>
       <c r="D14">
-        <v>0.4227441977408546</v>
+        <v>0.6731562419779209</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.0992963641866</v>
+        <v>0.7923949874717948</v>
       </c>
       <c r="G14">
-        <v>0.4771615647806726</v>
+        <v>0.3220092139881814</v>
       </c>
       <c r="H14">
-        <v>0.6207590550373396</v>
+        <v>0.251710927829194</v>
       </c>
       <c r="I14">
-        <v>0.4618246121476055</v>
+        <v>0.1875457167898844</v>
       </c>
       <c r="J14">
-        <v>0.4080158733322321</v>
+        <v>0.6964555040831186</v>
       </c>
       <c r="K14">
-        <v>0.5149958104258587</v>
+        <v>1.61834486194843</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.223032931547873</v>
+        <v>0.5590802048375032</v>
       </c>
       <c r="O14">
-        <v>2.155395116945556</v>
+        <v>1.15988407397009</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4839860961839122</v>
+        <v>1.466038300100649</v>
       </c>
       <c r="C15">
-        <v>0.0716535340530271</v>
+        <v>0.2341911983388485</v>
       </c>
       <c r="D15">
-        <v>0.4209896596642864</v>
+        <v>0.6660361583913641</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.098775637385444</v>
+        <v>0.786942286942093</v>
       </c>
       <c r="G15">
-        <v>0.477166548581863</v>
+        <v>0.3201479308007293</v>
       </c>
       <c r="H15">
-        <v>0.6211132845311909</v>
+        <v>0.2514367815600309</v>
       </c>
       <c r="I15">
-        <v>0.4622562535800334</v>
+        <v>0.1876328363376487</v>
       </c>
       <c r="J15">
-        <v>0.406266805312498</v>
+        <v>0.6889422010001027</v>
       </c>
       <c r="K15">
-        <v>0.5096918470628964</v>
+        <v>1.600913183737333</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.224225071536278</v>
+        <v>0.5617283613436932</v>
       </c>
       <c r="O15">
-        <v>2.156123123333657</v>
+        <v>1.15532814640693</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4560919059717321</v>
+        <v>1.37401414436593</v>
       </c>
       <c r="C16">
-        <v>0.06734401340078477</v>
+        <v>0.2202090657069817</v>
       </c>
       <c r="D16">
-        <v>0.4109836523831234</v>
+        <v>0.6254120011435305</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.095968214859738</v>
+        <v>0.7561873509806816</v>
       </c>
       <c r="G16">
-        <v>0.4772887541948378</v>
+        <v>0.309767028037534</v>
       </c>
       <c r="H16">
-        <v>0.6232190020802051</v>
+        <v>0.2500293789436014</v>
       </c>
       <c r="I16">
-        <v>0.464803617788494</v>
+        <v>0.1883151386371154</v>
       </c>
       <c r="J16">
-        <v>0.3963043800447537</v>
+        <v>0.6461642524097044</v>
       </c>
       <c r="K16">
-        <v>0.4792788645410155</v>
+        <v>1.501109274782692</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.231181113067819</v>
+        <v>0.5772049774577255</v>
       </c>
       <c r="O16">
-        <v>2.160649839113091</v>
+        <v>1.130165214618245</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4389714968253884</v>
+        <v>1.317628882648648</v>
       </c>
       <c r="C17">
-        <v>0.06469546607814891</v>
+        <v>0.2116415975392272</v>
       </c>
       <c r="D17">
-        <v>0.4048887634508844</v>
+        <v>0.600641675504022</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.094403647937909</v>
+        <v>0.7377441876933375</v>
       </c>
       <c r="G17">
-        <v>0.4774472484731902</v>
+        <v>0.3036445407762116</v>
       </c>
       <c r="H17">
-        <v>0.6245784381252761</v>
+        <v>0.2493081394495249</v>
       </c>
       <c r="I17">
-        <v>0.4664321828355753</v>
+        <v>0.1888925540695823</v>
       </c>
       <c r="J17">
-        <v>0.390247021665644</v>
+        <v>0.6201570682610082</v>
       </c>
       <c r="K17">
-        <v>0.4606059096934416</v>
+        <v>1.439954186121071</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.235559406246811</v>
+        <v>0.5869625606284892</v>
       </c>
       <c r="O17">
-        <v>2.163743422369691</v>
+        <v>1.115545377871769</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4291214899940883</v>
+        <v>1.285219712690434</v>
       </c>
       <c r="C18">
-        <v>0.06317035784374525</v>
+        <v>0.2067169720790361</v>
       </c>
       <c r="D18">
-        <v>0.4013991831421606</v>
+        <v>0.5864470559864401</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.093561729063438</v>
+        <v>0.7272860663183707</v>
       </c>
       <c r="G18">
-        <v>0.4775690908195642</v>
+        <v>0.3002100028344188</v>
       </c>
       <c r="H18">
-        <v>0.6253852232348365</v>
+        <v>0.248944054658466</v>
       </c>
       <c r="I18">
-        <v>0.4673930802603188</v>
+        <v>0.1892812984627419</v>
       </c>
       <c r="J18">
-        <v>0.3867829458575045</v>
+        <v>0.6052803500135298</v>
       </c>
       <c r="K18">
-        <v>0.4498602289116604</v>
+        <v>1.404802184617211</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.238118476292883</v>
+        <v>0.5926694492721261</v>
       </c>
       <c r="O18">
-        <v>2.165639111269783</v>
+        <v>1.107426281671323</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4257859871306664</v>
+        <v>1.274250044592435</v>
       </c>
       <c r="C19">
-        <v>0.06265368732279342</v>
+        <v>0.2050500686804071</v>
       </c>
       <c r="D19">
-        <v>0.4002204317816336</v>
+        <v>0.5816497629456308</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.093286630133932</v>
+        <v>0.7237703226830234</v>
       </c>
       <c r="G19">
-        <v>0.4776156125829871</v>
+        <v>0.299061746692928</v>
       </c>
       <c r="H19">
-        <v>0.6256626601404349</v>
+        <v>0.2488293606200642</v>
       </c>
       <c r="I19">
-        <v>0.4677225776881286</v>
+        <v>0.1894224849551875</v>
       </c>
       <c r="J19">
-        <v>0.3856134981349868</v>
+        <v>0.6002569854502582</v>
       </c>
       <c r="K19">
-        <v>0.4462210050238014</v>
+        <v>1.392903916852873</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.238991939869383</v>
+        <v>0.5946177506621737</v>
       </c>
       <c r="O19">
-        <v>2.166300940352158</v>
+        <v>1.104726118975634</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4407942884571696</v>
+        <v>1.323628830787555</v>
       </c>
       <c r="C20">
-        <v>0.06497758855773839</v>
+        <v>0.2125532801432541</v>
       </c>
       <c r="D20">
-        <v>0.4055359162576337</v>
+        <v>0.6032730073713424</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.094564198768225</v>
+        <v>0.7396918488017263</v>
       </c>
       <c r="G20">
-        <v>0.4774272008264049</v>
+        <v>0.3042872151430558</v>
       </c>
       <c r="H20">
-        <v>0.6244311498349617</v>
+        <v>0.2493796308560121</v>
       </c>
       <c r="I20">
-        <v>0.4662563156092538</v>
+        <v>0.1888251874662679</v>
       </c>
       <c r="J20">
-        <v>0.3908897726862506</v>
+        <v>0.6229169944506765</v>
       </c>
       <c r="K20">
-        <v>0.4625942511640062</v>
+        <v>1.44646181512752</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.235089107784635</v>
+        <v>0.5859140127166178</v>
       </c>
       <c r="O20">
-        <v>2.163402064133649</v>
+        <v>1.117071457350363</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4911851024842804</v>
+        <v>1.489820895068277</v>
       </c>
       <c r="C21">
-        <v>0.07276466149325245</v>
+        <v>0.2378047109743306</v>
       </c>
       <c r="D21">
-        <v>0.4235864028509013</v>
+        <v>0.6765737777950847</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.099549190752896</v>
+        <v>0.7950186331908782</v>
       </c>
       <c r="G21">
-        <v>0.4771608319407079</v>
+        <v>0.3229069235302546</v>
       </c>
       <c r="H21">
-        <v>0.6205905322290732</v>
+        <v>0.2518453378917513</v>
       </c>
       <c r="I21">
-        <v>0.461618934056883</v>
+        <v>0.187507243230101</v>
       </c>
       <c r="J21">
-        <v>0.4088556735702014</v>
+        <v>0.7000634250054389</v>
       </c>
       <c r="K21">
-        <v>0.5175388763275066</v>
+        <v>1.626705545792021</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.222463467891828</v>
+        <v>0.5578157469239962</v>
       </c>
       <c r="O21">
-        <v>2.155052294471943</v>
+        <v>1.162085868379762</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5240887370082987</v>
+        <v>1.598700873983802</v>
       </c>
       <c r="C22">
-        <v>0.07783791540603602</v>
+        <v>0.2543483737857031</v>
       </c>
       <c r="D22">
-        <v>0.435524928169599</v>
+        <v>0.7250133854240062</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.103322910719385</v>
+        <v>0.8326412851299949</v>
       </c>
       <c r="G22">
-        <v>0.4772602595607509</v>
+        <v>0.3359240904145651</v>
       </c>
       <c r="H22">
-        <v>0.6183016739072968</v>
+        <v>0.2539411080965976</v>
       </c>
       <c r="I22">
-        <v>0.4588036715398758</v>
+        <v>0.1871880267347237</v>
       </c>
       <c r="J22">
-        <v>0.4207748453517297</v>
+        <v>0.7513147751087104</v>
       </c>
       <c r="K22">
-        <v>0.5533945225193975</v>
+        <v>1.744783232673285</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.214575042121481</v>
+        <v>0.5403404319034877</v>
       </c>
       <c r="O22">
-        <v>2.150631329224325</v>
+        <v>1.194310697018437</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5065303927386822</v>
+        <v>1.540562068108699</v>
       </c>
       <c r="C23">
-        <v>0.07513172220615161</v>
+        <v>0.2455143895860914</v>
       </c>
       <c r="D23">
-        <v>0.4291402310219041</v>
+        <v>0.6991081940108188</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.101261642140997</v>
+        <v>0.8124210022599101</v>
       </c>
       <c r="G23">
-        <v>0.4771821517639552</v>
+        <v>0.3288952744257614</v>
       </c>
       <c r="H23">
-        <v>0.6195030540742152</v>
+        <v>0.2527766187094045</v>
       </c>
       <c r="I23">
-        <v>0.4602865026134459</v>
+        <v>0.1873068947210328</v>
       </c>
       <c r="J23">
-        <v>0.414397139903258</v>
+        <v>0.7238797129177073</v>
       </c>
       <c r="K23">
-        <v>0.5342628553776763</v>
+        <v>1.681733717084626</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.2187520179057</v>
+        <v>0.5495837176751053</v>
       </c>
       <c r="O23">
-        <v>2.152896075267677</v>
+        <v>1.176843747109956</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4399702269070929</v>
+        <v>1.320916231693275</v>
       </c>
       <c r="C24">
-        <v>0.0648500485249599</v>
+        <v>0.2121411056862428</v>
       </c>
       <c r="D24">
-        <v>0.4052432934417709</v>
+        <v>0.6020832391245676</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.094491434401007</v>
+        <v>0.7388108606584893</v>
       </c>
       <c r="G24">
-        <v>0.4774361686746147</v>
+        <v>0.3039963969804376</v>
       </c>
       <c r="H24">
-        <v>0.6244976602866217</v>
+        <v>0.2493471524421125</v>
       </c>
       <c r="I24">
-        <v>0.4663357485138455</v>
+        <v>0.1888554674600194</v>
       </c>
       <c r="J24">
-        <v>0.3905991276965182</v>
+        <v>0.6216689988246031</v>
       </c>
       <c r="K24">
-        <v>0.4616953541700468</v>
+        <v>1.443519695454683</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.235301599105565</v>
+        <v>0.5863877592105631</v>
       </c>
       <c r="O24">
-        <v>2.163556027289189</v>
+        <v>1.116380628292561</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.368069797886136</v>
+        <v>1.084804980265261</v>
       </c>
       <c r="C25">
-        <v>0.05369363063287835</v>
+        <v>0.1762571191683691</v>
       </c>
       <c r="D25">
-        <v>0.3800804379075942</v>
+        <v>0.4994045471067921</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.089405557563062</v>
+        <v>0.6650752991482136</v>
       </c>
       <c r="G25">
-        <v>0.4788829379785255</v>
+        <v>0.2804254273240119</v>
       </c>
       <c r="H25">
-        <v>0.6308362888892631</v>
+        <v>0.2475717187165145</v>
       </c>
       <c r="I25">
-        <v>0.473785598340065</v>
+        <v>0.1926713912316806</v>
       </c>
       <c r="J25">
-        <v>0.3656921440548189</v>
+        <v>0.5144984564843185</v>
       </c>
       <c r="K25">
-        <v>0.383212269017065</v>
+        <v>1.187400282630222</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.254712657564994</v>
+        <v>0.6296792418611119</v>
       </c>
       <c r="O25">
-        <v>2.179502383522859</v>
+        <v>1.062127539812579</v>
       </c>
     </row>
   </sheetData>
